--- a/src/main/resources/97-mall-swarm/mall-demo_structure.xlsx
+++ b/src/main/resources/97-mall-swarm/mall-demo_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="130">
   <si>
     <t>类名</t>
   </si>
@@ -160,13 +160,16 @@
     <t>com.macro.mall.demo.validator.FlagValidatorClass</t>
   </si>
   <si>
-    <t>isValid(javax.validation.ConstraintValidatorContext)</t>
+    <t>isValid(java.lang.Object,javax.validation.ConstraintValidatorContext)</t>
   </si>
   <si>
     <t>initialize(java.lang.annotation.Annotation)</t>
   </si>
   <si>
     <t>initialize(com.macro.mall.demo.validator.FlagValidator)</t>
+  </si>
+  <si>
+    <t>isValid(java.lang.Integer,javax.validation.ConstraintValidatorContext)</t>
   </si>
   <si>
     <t>com.macro.mall.demo.validator.FlagValidator</t>
@@ -1232,7 +1235,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -1299,10 +1302,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1313,7 +1316,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -1327,24 +1330,24 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1355,7 +1358,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
@@ -1383,7 +1386,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
         <v>30</v>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
         <v>33</v>
@@ -1425,7 +1428,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
         <v>35</v>
@@ -1439,21 +1442,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
@@ -1481,21 +1484,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -1523,7 +1526,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
         <v>33</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
         <v>35</v>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
         <v>27</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
         <v>38</v>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
@@ -1621,7 +1624,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1663,7 +1666,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -1677,21 +1680,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
@@ -1705,7 +1708,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
         <v>27</v>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -1733,7 +1736,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -1747,7 +1750,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
@@ -1761,7 +1764,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
         <v>33</v>
@@ -1775,21 +1778,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
@@ -1803,7 +1806,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
@@ -1817,7 +1820,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
         <v>38</v>
@@ -1831,21 +1834,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -1859,7 +1862,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -1873,7 +1876,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
         <v>33</v>
@@ -1887,7 +1890,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
         <v>25</v>
@@ -1901,7 +1904,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B104" t="s">
         <v>35</v>
@@ -1915,7 +1918,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B106" t="s">
         <v>27</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
         <v>29</v>
@@ -1971,7 +1974,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
@@ -1999,10 +2002,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -2013,7 +2016,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -2041,10 +2044,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2055,7 +2058,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
         <v>25</v>
@@ -2069,10 +2072,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2083,10 +2086,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -2097,21 +2100,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
         <v>27</v>
@@ -2125,7 +2128,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
         <v>29</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
         <v>30</v>
@@ -2167,7 +2170,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
         <v>33</v>
@@ -2181,7 +2184,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
         <v>35</v>
@@ -2195,7 +2198,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
         <v>23</v>
@@ -2209,7 +2212,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
         <v>38</v>
@@ -2223,35 +2226,35 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
         <v>75</v>
-      </c>
-      <c r="C127" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B131" t="s">
         <v>25</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B132" t="s">
         <v>27</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B133" t="s">
         <v>29</v>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -2335,7 +2338,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B135" t="s">
         <v>30</v>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B136" t="s">
         <v>33</v>
@@ -2363,21 +2366,21 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B137" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B138" t="s">
         <v>35</v>
@@ -2391,7 +2394,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
         <v>23</v>
@@ -2405,21 +2408,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B140" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
         <v>81</v>
-      </c>
-      <c r="C140" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B141" t="s">
         <v>38</v>
@@ -2433,7 +2436,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -2447,7 +2450,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -2461,7 +2464,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
         <v>33</v>
@@ -2475,7 +2478,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B145" t="s">
         <v>25</v>
@@ -2489,21 +2492,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
         <v>35</v>
@@ -2517,7 +2520,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
         <v>23</v>
@@ -2531,7 +2534,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s">
         <v>27</v>
@@ -2545,7 +2548,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B150" t="s">
         <v>38</v>
@@ -2559,7 +2562,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
         <v>29</v>
@@ -2573,7 +2576,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -2587,7 +2590,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B153" t="s">
         <v>30</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -2615,7 +2618,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -2629,10 +2632,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B156" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B157" t="s">
         <v>25</v>
@@ -2657,10 +2660,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B158" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -2671,10 +2674,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B159" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -2685,21 +2688,21 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B161" t="s">
         <v>27</v>
@@ -2713,7 +2716,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
@@ -2727,7 +2730,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B163" t="s">
         <v>20</v>
@@ -2741,7 +2744,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B164" t="s">
         <v>30</v>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B165" t="s">
         <v>33</v>
@@ -2769,7 +2772,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B166" t="s">
         <v>35</v>
@@ -2783,7 +2786,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B167" t="s">
         <v>23</v>
@@ -2797,7 +2800,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B168" t="s">
         <v>38</v>
@@ -2811,35 +2814,35 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B169" t="s">
+        <v>76</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
         <v>75</v>
-      </c>
-      <c r="C169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -2853,7 +2856,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -2867,7 +2870,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B173" t="s">
         <v>25</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B174" t="s">
         <v>27</v>
@@ -2895,7 +2898,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B175" t="s">
         <v>29</v>
@@ -2909,7 +2912,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B176" t="s">
         <v>20</v>
@@ -2923,7 +2926,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B177" t="s">
         <v>30</v>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B178" t="s">
         <v>33</v>
@@ -2951,35 +2954,35 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B179" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B180" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B181" t="s">
         <v>35</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B182" t="s">
         <v>23</v>
@@ -3007,7 +3010,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B183" t="s">
         <v>38</v>
@@ -3021,7 +3024,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -3035,7 +3038,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B186" t="s">
         <v>33</v>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B187" t="s">
         <v>25</v>
@@ -3077,10 +3080,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B188" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -3091,7 +3094,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B189" t="s">
         <v>35</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B190" t="s">
         <v>23</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B191" t="s">
         <v>27</v>
@@ -3133,7 +3136,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B192" t="s">
         <v>38</v>
@@ -3147,7 +3150,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B193" t="s">
         <v>29</v>
@@ -3161,7 +3164,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B194" t="s">
         <v>20</v>
@@ -3175,7 +3178,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B195" t="s">
         <v>30</v>
@@ -3205,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
@@ -3219,10 +3222,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -3233,10 +3236,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3247,10 +3250,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -3261,10 +3264,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3275,10 +3278,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3289,10 +3292,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -3303,10 +3306,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -3317,10 +3320,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -3331,10 +3334,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3345,10 +3348,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -3359,27 +3362,27 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3397,13 +3400,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3411,156 +3414,156 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
         <v>115</v>
       </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3578,19 +3581,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
@@ -3598,16 +3601,16 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
@@ -3615,16 +3618,33 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3642,206 +3662,206 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
         <v>115</v>
       </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3859,19 +3879,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3889,19 +3909,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
-        <v>126</v>
-      </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3919,19 +3939,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3949,19 +3969,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
